--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
       <c r="C2" s="2" t="n"/>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>童游农校</t>
         </is>
       </c>
       <c r="E2" s="2" t="n"/>
@@ -498,7 +498,11 @@
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
-      <c r="I2" s="2" t="n"/>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>陈总</t>
+        </is>
+      </c>
       <c r="J2" s="2" t="n"/>
       <c r="K2" s="2" t="n"/>
       <c r="L2" s="2" t="n"/>
@@ -513,11 +517,7 @@
       </c>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>2024-06-30</t>
-        </is>
-      </c>
+      <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="inlineStr">
@@ -526,11 +526,7 @@
         </is>
       </c>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-06</t>
-        </is>
-      </c>
+      <c r="I3" s="2" t="inlineStr"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
@@ -635,20 +631,24 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>2024-06-29</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="C6" s="4" t="n"/>
-      <c r="D6" s="4" t="inlineStr"/>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>中午</t>
+        </is>
+      </c>
       <c r="E6" s="4" t="n"/>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>彭墩</t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t>dd</t>
+          <t>垃圾</t>
         </is>
       </c>
       <c r="H6" s="4" t="n"/>
@@ -674,161 +674,160 @@
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>2024-06-30</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="n"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="n"/>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>dd</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="n"/>
-      <c r="I7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0</v>
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>合 计</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="n"/>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="n"/>
+      <c r="I7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L7" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M7" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N7" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>2024-07-04</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="n"/>
-      <c r="D8" s="4" t="inlineStr"/>
-      <c r="E8" s="4" t="n"/>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="G8" s="4" t="inlineStr">
-        <is>
-          <t>dd</t>
-        </is>
-      </c>
-      <c r="H8" s="4" t="n"/>
-      <c r="I8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>总 计 金 额</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="n"/>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>总 计 大 写  (金 额 )</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="n"/>
+      <c r="H8" s="5" t="n"/>
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="J8" s="5" t="n"/>
+      <c r="K8" s="5" t="n"/>
+      <c r="L8" s="5" t="n"/>
+      <c r="M8" s="5" t="n"/>
+      <c r="N8" s="5" t="n"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>2024-07-05</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="n"/>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>dd</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="n"/>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="G9" s="4" t="inlineStr">
-        <is>
-          <t>dd</t>
-        </is>
-      </c>
-      <c r="H9" s="4" t="n"/>
-      <c r="I9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0</v>
+      <c r="A9" s="2" t="inlineStr"/>
+      <c r="B9" s="2" t="n"/>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>运输起点</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>终点工地</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>品类</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="n"/>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>单位</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>单价</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>终点付费金额</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>起点补贴金额</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>终点补贴金额</t>
+        </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>2024-07-10</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="n"/>
-      <c r="D10" s="4" t="inlineStr"/>
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>运 输 品 类 合 计</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>中午</t>
+        </is>
+      </c>
       <c r="E10" s="4" t="n"/>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>彭墩</t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t>dd</t>
+          <t>垃圾</t>
         </is>
       </c>
       <c r="H10" s="4" t="n"/>
@@ -854,13 +853,13 @@
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
-        <is>
-          <t>合 计</t>
-        </is>
-      </c>
+      <c r="A11" s="5" t="inlineStr"/>
       <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>合计</t>
+        </is>
+      </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
           <t>-</t>
@@ -872,10 +871,16 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="H11" s="5" t="n"/>
-      <c r="I11" s="5" t="n">
-        <v>0</v>
+      <c r="I11" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J11" s="5" t="inlineStr">
         <is>
@@ -903,347 +908,110 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="5" t="inlineStr">
-        <is>
-          <t>总 计 金 额</t>
-        </is>
-      </c>
-      <c r="B12" s="5" t="n"/>
-      <c r="C12" s="5" t="n"/>
-      <c r="D12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5" t="n"/>
-      <c r="F12" s="5" t="inlineStr">
-        <is>
-          <t>总 计 大 写  (金 额 )</t>
-        </is>
-      </c>
-      <c r="G12" s="5" t="n"/>
-      <c r="H12" s="5" t="n"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="n"/>
-      <c r="K12" s="5" t="n"/>
-      <c r="L12" s="5" t="n"/>
-      <c r="M12" s="5" t="n"/>
-      <c r="N12" s="5" t="n"/>
+    <row r="12" ht="30" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>工 地 负 责 人（ 签 字 确 认 ) ：</t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="6" t="n"/>
+      <c r="D12" s="6" t="n"/>
+      <c r="E12" s="6" t="n"/>
+      <c r="F12" s="6" t="inlineStr">
+        <is>
+          <t>运 输 单 位 负 责 人 (  签 字 确 认 ) ：</t>
+        </is>
+      </c>
+      <c r="G12" s="6" t="n"/>
+      <c r="H12" s="6" t="n"/>
+      <c r="I12" s="6" t="n"/>
+      <c r="J12" s="6" t="n"/>
+      <c r="K12" s="6" t="n"/>
+      <c r="L12" s="6" t="n"/>
+      <c r="M12" s="6" t="n"/>
+      <c r="N12" s="6" t="n"/>
     </row>
     <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="3" t="inlineStr"/>
-      <c r="B13" s="3" t="n"/>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>序号</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>运输起点</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="n"/>
-      <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t>终点工地</t>
-        </is>
-      </c>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t>品类</t>
-        </is>
-      </c>
-      <c r="H13" s="3" t="n"/>
-      <c r="I13" s="3" t="inlineStr">
-        <is>
-          <t>数量</t>
-        </is>
-      </c>
-      <c r="J13" s="3" t="inlineStr">
-        <is>
-          <t>单位</t>
-        </is>
-      </c>
-      <c r="K13" s="3" t="inlineStr">
-        <is>
-          <t>单价</t>
-        </is>
-      </c>
-      <c r="L13" s="3" t="inlineStr">
-        <is>
-          <t>终点付费金额</t>
-        </is>
-      </c>
-      <c r="M13" s="3" t="inlineStr">
-        <is>
-          <t>起点补贴金额</t>
-        </is>
-      </c>
-      <c r="N13" s="3" t="inlineStr">
-        <is>
-          <t>终点补贴金额</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>运 输 品 类 合 计</t>
-        </is>
-      </c>
-      <c r="C14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4" t="inlineStr"/>
-      <c r="E14" s="4" t="n"/>
-      <c r="F14" s="4" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="G14" s="4" t="inlineStr">
-        <is>
-          <t>dd</t>
-        </is>
-      </c>
-      <c r="H14" s="4" t="n"/>
-      <c r="I14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="4" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="K14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="C15" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4" t="inlineStr">
-        <is>
-          <t>dd</t>
-        </is>
-      </c>
-      <c r="E15" s="4" t="n"/>
-      <c r="F15" s="4" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="G15" s="4" t="inlineStr">
-        <is>
-          <t>dd</t>
-        </is>
-      </c>
-      <c r="H15" s="4" t="n"/>
-      <c r="I15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="K15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="5" t="inlineStr"/>
-      <c r="B16" s="5" t="n"/>
-      <c r="C16" s="5" t="inlineStr">
-        <is>
-          <t>合计</t>
-        </is>
-      </c>
-      <c r="D16" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E16" s="5" t="n"/>
-      <c r="F16" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G16" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H16" s="5" t="n"/>
-      <c r="I16" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J16" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K16" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L16" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M16" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N16" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="30" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>工 地 负 责 人（ 签 字 确 认 ) ：</t>
-        </is>
-      </c>
-      <c r="B17" s="6" t="n"/>
-      <c r="C17" s="6" t="n"/>
-      <c r="D17" s="6" t="n"/>
-      <c r="E17" s="6" t="n"/>
-      <c r="F17" s="6" t="inlineStr">
-        <is>
-          <t>运 输 单 位 负 责 人 (  签 字 确 认 ) ：</t>
-        </is>
-      </c>
-      <c r="G17" s="6" t="n"/>
-      <c r="H17" s="6" t="n"/>
-      <c r="I17" s="6" t="n"/>
-      <c r="J17" s="6" t="n"/>
-      <c r="K17" s="6" t="n"/>
-      <c r="L17" s="6" t="n"/>
-      <c r="M17" s="6" t="n"/>
-      <c r="N17" s="6" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="7" t="inlineStr">
+      <c r="A13" s="7" t="inlineStr">
         <is>
           <t>经 营 范 围 ： 本 公 司 承 拆 土 石 方 工 程 、渣 土 、 建 筑 垃 圾 运 输 、 砂 石 料 、 柴 油 配 送 等 。</t>
         </is>
       </c>
-      <c r="B18" s="7" t="n"/>
-      <c r="C18" s="7" t="n"/>
-      <c r="D18" s="7" t="n"/>
-      <c r="E18" s="7" t="n"/>
-      <c r="F18" s="7" t="n"/>
-      <c r="G18" s="7" t="n"/>
-      <c r="H18" s="7" t="n"/>
-      <c r="I18" s="7" t="n"/>
-      <c r="J18" s="7" t="n"/>
-      <c r="K18" s="7" t="n"/>
-      <c r="L18" s="7" t="n"/>
-      <c r="M18" s="7" t="n"/>
-      <c r="N18" s="7" t="n"/>
-    </row>
-    <row r="19" ht="22" customHeight="1">
-      <c r="A19" s="8" t="inlineStr">
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="7" t="n"/>
+      <c r="I13" s="7" t="n"/>
+      <c r="J13" s="7" t="n"/>
+      <c r="K13" s="7" t="n"/>
+      <c r="L13" s="7" t="n"/>
+      <c r="M13" s="7" t="n"/>
+      <c r="N13" s="7" t="n"/>
+    </row>
+    <row r="14" ht="22" customHeight="1">
+      <c r="A14" s="8" t="inlineStr">
         <is>
           <t>成 就 伙 伴 、 铸 造 品 牌 、 我 们 每 天 努 力 、 我 们 每 天 进 步 。</t>
         </is>
       </c>
-      <c r="B19" s="8" t="n"/>
-      <c r="C19" s="8" t="n"/>
-      <c r="D19" s="8" t="n"/>
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
-      <c r="G19" s="8" t="n"/>
-      <c r="H19" s="8" t="n"/>
-      <c r="I19" s="8" t="n"/>
-      <c r="J19" s="8" t="n"/>
-      <c r="K19" s="8" t="n"/>
-      <c r="L19" s="8" t="n"/>
-      <c r="M19" s="8" t="n"/>
-      <c r="N19" s="8" t="n"/>
+      <c r="B14" s="8" t="n"/>
+      <c r="C14" s="8" t="n"/>
+      <c r="D14" s="8" t="n"/>
+      <c r="E14" s="8" t="n"/>
+      <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
+      <c r="H14" s="8" t="n"/>
+      <c r="I14" s="8" t="n"/>
+      <c r="J14" s="8" t="n"/>
+      <c r="K14" s="8" t="n"/>
+      <c r="L14" s="8" t="n"/>
+      <c r="M14" s="8" t="n"/>
+      <c r="N14" s="8" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="38">
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B7:C7"/>
     <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="G11:H11"/>
+    <mergeCell ref="F8:H8"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="I3:N3"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="F17:N17"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="I12:N12"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D4:F4"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D13:E13"/>
     <mergeCell ref="D3:F3"/>
+    <mergeCell ref="I8:N8"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G13:H13"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="I4:N4"/>
-    <mergeCell ref="B8:C8"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A12:E12"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B10:C10"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A14:N14"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A11:C11"/>
     <mergeCell ref="I2:N2"/>
-    <mergeCell ref="D15:E15"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G16:H16"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A19:N19"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="F12:N12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
       <c r="C2" s="2" t="n"/>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>童游农校</t>
+          <t>建盏街</t>
         </is>
       </c>
       <c r="E2" s="2" t="n"/>
@@ -500,7 +500,7 @@
       <c r="H2" s="2" t="n"/>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>陈总</t>
+          <t>徐总</t>
         </is>
       </c>
       <c r="J2" s="2" t="n"/>
@@ -517,7 +517,11 @@
       </c>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="inlineStr"/>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-31</t>
+        </is>
+      </c>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="inlineStr">
@@ -526,7 +530,11 @@
         </is>
       </c>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="inlineStr"/>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-07</t>
+        </is>
+      </c>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
@@ -631,15 +639,11 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-31</t>
         </is>
       </c>
       <c r="C6" s="4" t="n"/>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>中午</t>
-        </is>
-      </c>
+      <c r="D6" s="4" t="inlineStr"/>
       <c r="E6" s="4" t="n"/>
       <c r="F6" s="4" t="inlineStr">
         <is>
@@ -653,15 +657,15 @@
       </c>
       <c r="H6" s="4" t="n"/>
       <c r="I6" s="4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J6" s="4" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>车</t>
         </is>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="L6" s="4" t="n">
         <v>0</v>
@@ -674,334 +678,383 @@
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>合 计</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="n"/>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="n"/>
-      <c r="I7" s="5" t="n">
+      <c r="A7" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="n"/>
+      <c r="D7" s="4" t="inlineStr"/>
+      <c r="E7" s="4" t="n"/>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>彭墩</t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>垃圾</t>
+        </is>
+      </c>
+      <c r="H7" s="4" t="n"/>
+      <c r="I7" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="J7" s="4" t="inlineStr">
+        <is>
+          <t>车</t>
+        </is>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>260</v>
+      </c>
+      <c r="L7" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K7" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L7" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M7" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N7" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="M7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>总 计 金 额</t>
+          <t>合 计</t>
         </is>
       </c>
       <c r="B8" s="5" t="n"/>
       <c r="C8" s="5" t="n"/>
-      <c r="D8" s="5" t="n">
-        <v>0</v>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E8" s="5" t="n"/>
       <c r="F8" s="5" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="n"/>
+      <c r="I8" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="J8" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M8" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N8" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>总 计 金 额</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="n"/>
+      <c r="C9" s="5" t="n"/>
+      <c r="D9" s="5" t="n">
+        <v>5980</v>
+      </c>
+      <c r="E9" s="5" t="n"/>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
           <t>总 计 大 写  (金 额 )</t>
         </is>
       </c>
-      <c r="G8" s="5" t="n"/>
-      <c r="H8" s="5" t="n"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="n"/>
-      <c r="K8" s="5" t="n"/>
-      <c r="L8" s="5" t="n"/>
-      <c r="M8" s="5" t="n"/>
-      <c r="N8" s="5" t="n"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="2" t="inlineStr"/>
-      <c r="B9" s="2" t="n"/>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="G9" s="5" t="n"/>
+      <c r="H9" s="5" t="n"/>
+      <c r="I9" s="5" t="inlineStr">
+        <is>
+          <t>伍仟玖佰捌拾</t>
+        </is>
+      </c>
+      <c r="J9" s="5" t="n"/>
+      <c r="K9" s="5" t="n"/>
+      <c r="L9" s="5" t="n"/>
+      <c r="M9" s="5" t="n"/>
+      <c r="N9" s="5" t="n"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="2" t="inlineStr"/>
+      <c r="B10" s="2" t="n"/>
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>序号</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>运输起点</t>
         </is>
       </c>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>终点工地</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>品类</t>
         </is>
       </c>
-      <c r="H9" s="2" t="n"/>
-      <c r="I9" s="2" t="inlineStr">
+      <c r="H10" s="2" t="n"/>
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>数量</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>单位</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>单价</t>
         </is>
       </c>
-      <c r="L9" s="2" t="inlineStr">
+      <c r="L10" s="2" t="inlineStr">
         <is>
           <t>终点付费金额</t>
         </is>
       </c>
-      <c r="M9" s="2" t="inlineStr">
+      <c r="M10" s="2" t="inlineStr">
         <is>
           <t>起点补贴金额</t>
         </is>
       </c>
-      <c r="N9" s="2" t="inlineStr">
+      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>终点补贴金额</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="2" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>运 输 品 类 合 计</t>
         </is>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C11" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="4" t="inlineStr">
-        <is>
-          <t>中午</t>
-        </is>
-      </c>
-      <c r="E10" s="4" t="n"/>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr"/>
+      <c r="E11" s="4" t="n"/>
+      <c r="F11" s="4" t="inlineStr">
         <is>
           <t>彭墩</t>
         </is>
       </c>
-      <c r="G10" s="4" t="inlineStr">
+      <c r="G11" s="4" t="inlineStr">
         <is>
           <t>垃圾</t>
         </is>
       </c>
-      <c r="H10" s="4" t="n"/>
-      <c r="I10" s="4" t="n">
+      <c r="H11" s="4" t="n"/>
+      <c r="I11" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="J11" s="4" t="inlineStr">
+        <is>
+          <t>车</t>
+        </is>
+      </c>
+      <c r="K11" s="4" t="n">
+        <v>260</v>
+      </c>
+      <c r="L11" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="4" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="K10" s="4" t="n">
+      <c r="M11" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L10" s="4" t="n">
+      <c r="N11" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="M10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="5" t="inlineStr"/>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="inlineStr">
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" s="5" t="inlineStr"/>
+      <c r="B12" s="5" t="n"/>
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>合计</t>
         </is>
       </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G11" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H11" s="5" t="n"/>
-      <c r="I11" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J11" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K11" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L11" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M11" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N11" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="30" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="n"/>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G12" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H12" s="5" t="n"/>
+      <c r="I12" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J12" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L12" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M12" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N12" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="30" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
         <is>
           <t>工 地 负 责 人（ 签 字 确 认 ) ：</t>
         </is>
       </c>
-      <c r="B12" s="6" t="n"/>
-      <c r="C12" s="6" t="n"/>
-      <c r="D12" s="6" t="n"/>
-      <c r="E12" s="6" t="n"/>
-      <c r="F12" s="6" t="inlineStr">
+      <c r="B13" s="6" t="n"/>
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="n"/>
+      <c r="E13" s="6" t="n"/>
+      <c r="F13" s="6" t="inlineStr">
         <is>
           <t>运 输 单 位 负 责 人 (  签 字 确 认 ) ：</t>
         </is>
       </c>
-      <c r="G12" s="6" t="n"/>
-      <c r="H12" s="6" t="n"/>
-      <c r="I12" s="6" t="n"/>
-      <c r="J12" s="6" t="n"/>
-      <c r="K12" s="6" t="n"/>
-      <c r="L12" s="6" t="n"/>
-      <c r="M12" s="6" t="n"/>
-      <c r="N12" s="6" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>经 营 范 围 ： 本 公 司 承 拆 土 石 方 工 程 、渣 土 、 建 筑 垃 圾 运 输 、 砂 石 料 、 柴 油 配 送 等 。</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="n"/>
-      <c r="C13" s="7" t="n"/>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="7" t="n"/>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
-      <c r="H13" s="7" t="n"/>
-      <c r="I13" s="7" t="n"/>
-      <c r="J13" s="7" t="n"/>
-      <c r="K13" s="7" t="n"/>
-      <c r="L13" s="7" t="n"/>
-      <c r="M13" s="7" t="n"/>
-      <c r="N13" s="7" t="n"/>
-    </row>
-    <row r="14" ht="22" customHeight="1">
-      <c r="A14" s="8" t="inlineStr">
-        <is>
-          <t>成 就 伙 伴 、 铸 造 品 牌 、 我 们 每 天 努 力 、 我 们 每 天 进 步 。</t>
-        </is>
-      </c>
-      <c r="B14" s="8" t="n"/>
-      <c r="C14" s="8" t="n"/>
-      <c r="D14" s="8" t="n"/>
-      <c r="E14" s="8" t="n"/>
-      <c r="F14" s="8" t="n"/>
-      <c r="G14" s="8" t="n"/>
-      <c r="H14" s="8" t="n"/>
-      <c r="I14" s="8" t="n"/>
-      <c r="J14" s="8" t="n"/>
-      <c r="K14" s="8" t="n"/>
-      <c r="L14" s="8" t="n"/>
-      <c r="M14" s="8" t="n"/>
-      <c r="N14" s="8" t="n"/>
+      <c r="G13" s="6" t="n"/>
+      <c r="H13" s="6" t="n"/>
+      <c r="I13" s="6" t="n"/>
+      <c r="J13" s="6" t="n"/>
+      <c r="K13" s="6" t="n"/>
+      <c r="L13" s="6" t="n"/>
+      <c r="M13" s="6" t="n"/>
+      <c r="N13" s="6" t="n"/>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>经 营 范 围 ： 建筑垃圾清运，砂石料运输及销售，供应铺路石渣，云梯车租赁。</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="n"/>
+      <c r="C14" s="7" t="n"/>
+      <c r="D14" s="7" t="n"/>
+      <c r="E14" s="7" t="n"/>
+      <c r="F14" s="7" t="n"/>
+      <c r="G14" s="7" t="n"/>
+      <c r="H14" s="7" t="n"/>
+      <c r="I14" s="7" t="n"/>
+      <c r="J14" s="7" t="n"/>
+      <c r="K14" s="7" t="n"/>
+      <c r="L14" s="7" t="n"/>
+      <c r="M14" s="7" t="n"/>
+      <c r="N14" s="7" t="n"/>
+    </row>
+    <row r="15" ht="22" customHeight="1">
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t>立 信 于 心 ， 尽 责 至 善！</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="n"/>
+      <c r="C15" s="8" t="n"/>
+      <c r="D15" s="8" t="n"/>
+      <c r="E15" s="8" t="n"/>
+      <c r="F15" s="8" t="n"/>
+      <c r="G15" s="8" t="n"/>
+      <c r="H15" s="8" t="n"/>
+      <c r="I15" s="8" t="n"/>
+      <c r="J15" s="8" t="n"/>
+      <c r="K15" s="8" t="n"/>
+      <c r="L15" s="8" t="n"/>
+      <c r="M15" s="8" t="n"/>
+      <c r="N15" s="8" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="41">
     <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G12:H12"/>
     <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="G11:H11"/>
-    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="A15:N15"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="I3:N3"/>
+    <mergeCell ref="G8:H8"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G9:H9"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G10:H10"/>
+    <mergeCell ref="F13:N13"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="I8:N8"/>
     <mergeCell ref="G6:H6"/>
+    <mergeCell ref="F9:H9"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="I4:N4"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="I9:N9"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A14:N14"/>
+    <mergeCell ref="D12:E12"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="B6:C6"/>
@@ -1009,9 +1062,7 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="F12:N12"/>
+    <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="宏途运输每月对账单" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="宏途清运终点对账单" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -34,7 +34,7 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="14"/>
+      <sz val="16"/>
     </font>
   </fonts>
   <fills count="2">
@@ -57,7 +57,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -73,6 +73,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -446,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,60 +457,54 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="10" customWidth="1" min="10" max="10"/>
-    <col width="10" customWidth="1" min="11" max="11"/>
-    <col width="15" customWidth="1" min="12" max="12"/>
-    <col width="15" customWidth="1" min="13" max="13"/>
-    <col width="15" customWidth="1" min="14" max="14"/>
+    <col width="10.41" customWidth="1" min="1" max="1"/>
+    <col width="8.17" customWidth="1" min="2" max="2"/>
+    <col width="11.29" customWidth="1" min="3" max="3"/>
+    <col width="26.29" customWidth="1" min="4" max="4"/>
+    <col width="12.14" customWidth="1" min="5" max="5"/>
+    <col width="40.15" customWidth="1" min="6" max="6"/>
+    <col width="12.68" customWidth="1" min="7" max="7"/>
+    <col width="8.49" customWidth="1" min="8" max="8"/>
+    <col width="8.49" customWidth="1" min="9" max="9"/>
+    <col width="16.87" customWidth="1" min="10" max="10"/>
+    <col width="10.58" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>宏途运输每月对账单</t>
+          <t>宏途清运终点对账单</t>
         </is>
       </c>
     </row>
     <row r="2" ht="25" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>起 点 工 地 单 位 名 称</t>
+          <t>项 目 名 称</t>
         </is>
       </c>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="2" t="n"/>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>建盏街</t>
+          <t>阳光体育</t>
         </is>
       </c>
       <c r="E2" s="2" t="n"/>
-      <c r="F2" s="2" t="n"/>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>项 目 老 板 名 称</t>
+        </is>
+      </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>工 地 老 板 名 称</t>
+          <t>刘老板</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>徐总</t>
-        </is>
-      </c>
+      <c r="I2" s="2" t="n"/>
       <c r="J2" s="2" t="n"/>
       <c r="K2" s="2" t="n"/>
-      <c r="L2" s="2" t="n"/>
-      <c r="M2" s="2" t="n"/>
-      <c r="N2" s="2" t="n"/>
     </row>
     <row r="3" ht="25" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
@@ -517,29 +514,18 @@
       </c>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>2024-07-31</t>
-        </is>
-      </c>
+      <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>对 账 截 止 日 期</t>
         </is>
       </c>
+      <c r="G3" s="2" t="inlineStr"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="inlineStr">
-        <is>
-          <t>2024-08-07</t>
-        </is>
-      </c>
+      <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -551,27 +537,24 @@
       <c r="C4" s="2" t="n"/>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>八 达 通 渣 土 运 输 有 限 公 司</t>
+          <t>南平市宏途渣土清运有限公司</t>
         </is>
       </c>
       <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>公 司 负 责 人</t>
+        </is>
+      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>公 司 负 责 人</t>
+          <t>吴 春 才 18905996295</t>
         </is>
       </c>
       <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>叶 家 荣 19859999999</t>
-        </is>
-      </c>
+      <c r="I4" s="2" t="n"/>
       <c r="J4" s="2" t="n"/>
       <c r="K4" s="2" t="n"/>
-      <c r="L4" s="2" t="n"/>
-      <c r="M4" s="2" t="n"/>
-      <c r="N4" s="2" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" s="3" t="inlineStr">
@@ -581,7 +564,7 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>起始日期</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C5" s="3" t="n"/>
@@ -590,48 +573,44 @@
           <t>运输起点</t>
         </is>
       </c>
-      <c r="E5" s="3" t="n"/>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>品类</t>
+        </is>
+      </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>终点工地</t>
+          <t>车队</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="n"/>
+          <t>装车方式</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
+      </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>数量</t>
+          <t>单位</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
-          <t>单位</t>
+          <t>终点付费金额</t>
         </is>
       </c>
       <c r="K5" s="3" t="inlineStr">
         <is>
-          <t>单价</t>
-        </is>
-      </c>
-      <c r="L5" s="3" t="inlineStr">
-        <is>
-          <t>终点付费金额</t>
-        </is>
-      </c>
-      <c r="M5" s="3" t="inlineStr">
-        <is>
-          <t>起点补贴金额</t>
-        </is>
-      </c>
-      <c r="N5" s="3" t="inlineStr">
-        <is>
-          <t>终点补贴金额</t>
-        </is>
-      </c>
+          <t>总金额</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="n"/>
+      <c r="M5" s="3" t="n"/>
+      <c r="N5" s="3" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" s="4" t="n">
@@ -639,43 +618,43 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>2024-08-21</t>
         </is>
       </c>
       <c r="C6" s="4" t="n"/>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="n"/>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>彭墩</t>
         </is>
       </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>垃圾</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr"/>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t>垃圾</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="n"/>
-      <c r="I6" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>车</t>
-        </is>
+          <t>自带机械</t>
+        </is>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t>工地</t>
+        </is>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>260</v>
-      </c>
-      <c r="L6" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="M6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="L6" s="4" t="n"/>
+      <c r="M6" s="4" t="n"/>
+      <c r="N6" s="4" t="n"/>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" s="4" t="n">
@@ -687,382 +666,390 @@
         </is>
       </c>
       <c r="C7" s="4" t="n"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="n"/>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>彭墩</t>
         </is>
       </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>垃圾</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr"/>
       <c r="G7" s="4" t="inlineStr">
         <is>
+          <t>自带机械</t>
+        </is>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4" t="inlineStr">
+        <is>
+          <t>吨</t>
+        </is>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L7" s="4" t="n"/>
+      <c r="M7" s="4" t="n"/>
+      <c r="N7" s="4" t="n"/>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n"/>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>彭墩</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
           <t>垃圾</t>
         </is>
       </c>
-      <c r="H7" s="4" t="n"/>
-      <c r="I7" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>车</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>260</v>
-      </c>
-      <c r="L7" s="4" t="n">
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>闽HRSR896</t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t>自带机械</t>
+        </is>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="I8" s="4" t="inlineStr">
+        <is>
+          <t>吨</t>
+        </is>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="L8" s="4" t="n"/>
+      <c r="M8" s="4" t="n"/>
+      <c r="N8" s="4" t="n"/>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>2024-08-06</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n"/>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>彭墩</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>砖</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>闽HYZ633，闽HRT560，闽HRSR896，闽HPUY732</t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>工地机械</t>
+        </is>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" s="4" t="inlineStr">
+        <is>
+          <t>吨</t>
+        </is>
+      </c>
+      <c r="J9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="M7" s="4" t="n">
+      <c r="K9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="N7" s="4" t="n">
+      <c r="L9" s="4" t="n"/>
+      <c r="M9" s="4" t="n"/>
+      <c r="N9" s="4" t="n"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>总 计 金 额</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="n"/>
+      <c r="C10" s="5" t="n"/>
+      <c r="D10" s="5" t="n">
+        <v>110</v>
+      </c>
+      <c r="E10" s="5" t="n"/>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>总 计 大 写 (金 额)</t>
+        </is>
+      </c>
+      <c r="G10" s="5" t="inlineStr">
+        <is>
+          <t>壹佰壹拾</t>
+        </is>
+      </c>
+      <c r="H10" s="5" t="n"/>
+      <c r="I10" s="5" t="n"/>
+      <c r="J10" s="5" t="n"/>
+      <c r="K10" s="5" t="n"/>
+      <c r="L10" s="5" t="n"/>
+      <c r="M10" s="5" t="n"/>
+      <c r="N10" s="5" t="n"/>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>运输品类合计</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>运输起点</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>品类</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>车队</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>总金额</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="n"/>
+      <c r="I11" s="2" t="n"/>
+      <c r="J11" s="2" t="n"/>
+      <c r="K11" s="2" t="n"/>
+      <c r="L11" s="2" t="n"/>
+      <c r="M11" s="2" t="n"/>
+      <c r="N11" s="2" t="n"/>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="C12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>彭墩</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>垃圾</t>
+        </is>
+      </c>
+      <c r="F12" s="4" t="inlineStr">
+        <is>
+          <t>闽HRSR896</t>
+        </is>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>110</v>
+      </c>
+      <c r="H12" s="4" t="n"/>
+      <c r="I12" s="4" t="n"/>
+      <c r="J12" s="4" t="n"/>
+      <c r="K12" s="4" t="n"/>
+      <c r="L12" s="4" t="n"/>
+      <c r="M12" s="4" t="n"/>
+      <c r="N12" s="4" t="n"/>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="C13" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>彭墩</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>砖</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>闽HRT560，闽HRSR896，闽HPUY732</t>
+        </is>
+      </c>
+      <c r="G13" s="4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
-        <is>
-          <t>合 计</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="n"/>
-      <c r="C8" s="5" t="n"/>
-      <c r="D8" s="5" t="inlineStr">
+      <c r="H13" s="4" t="n"/>
+      <c r="I13" s="4" t="n"/>
+      <c r="J13" s="4" t="n"/>
+      <c r="K13" s="4" t="n"/>
+      <c r="L13" s="4" t="n"/>
+      <c r="M13" s="4" t="n"/>
+      <c r="N13" s="4" t="n"/>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>合计</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E8" s="5" t="n"/>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="E14" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="n"/>
-      <c r="I8" s="5" t="n">
-        <v>23</v>
-      </c>
-      <c r="J8" s="5" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="K8" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
-        <is>
-          <t>总 计 金 额</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n">
-        <v>5980</v>
-      </c>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="inlineStr">
-        <is>
-          <t>总 计 大 写  (金 额 )</t>
-        </is>
-      </c>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
-      <c r="I9" s="5" t="inlineStr">
-        <is>
-          <t>伍仟玖佰捌拾</t>
-        </is>
-      </c>
-      <c r="J9" s="5" t="n"/>
-      <c r="K9" s="5" t="n"/>
-      <c r="L9" s="5" t="n"/>
-      <c r="M9" s="5" t="n"/>
-      <c r="N9" s="5" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="2" t="inlineStr"/>
-      <c r="B10" s="2" t="n"/>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>序号</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>运输起点</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>终点工地</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>品类</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n"/>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>数量</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>单位</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>单价</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>终点付费金额</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>起点补贴金额</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>终点补贴金额</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>运 输 品 类 合 计</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4" t="inlineStr"/>
-      <c r="E11" s="4" t="n"/>
-      <c r="F11" s="4" t="inlineStr">
-        <is>
-          <t>彭墩</t>
-        </is>
-      </c>
-      <c r="G11" s="4" t="inlineStr">
-        <is>
-          <t>垃圾</t>
-        </is>
-      </c>
-      <c r="H11" s="4" t="n"/>
-      <c r="I11" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="J11" s="4" t="inlineStr">
-        <is>
-          <t>车</t>
-        </is>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>260</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="5" t="inlineStr"/>
-      <c r="B12" s="5" t="n"/>
-      <c r="C12" s="5" t="inlineStr">
-        <is>
-          <t>合计</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E12" s="5" t="n"/>
-      <c r="F12" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G12" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H12" s="5" t="n"/>
-      <c r="I12" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J12" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K12" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L12" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M12" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N12" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="30" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
+      <c r="G14" s="5" t="n">
+        <v>110</v>
+      </c>
+      <c r="H14" s="5" t="n"/>
+      <c r="I14" s="5" t="n"/>
+      <c r="J14" s="5" t="n"/>
+      <c r="K14" s="5" t="n"/>
+      <c r="L14" s="5" t="n"/>
+      <c r="M14" s="5" t="n"/>
+      <c r="N14" s="5" t="n"/>
+    </row>
+    <row r="15" ht="30" customHeight="1">
+      <c r="A15" s="7" t="inlineStr">
         <is>
           <t>工 地 负 责 人（ 签 字 确 认 ) ：</t>
         </is>
       </c>
-      <c r="B13" s="6" t="n"/>
-      <c r="C13" s="6" t="n"/>
-      <c r="D13" s="6" t="n"/>
-      <c r="E13" s="6" t="n"/>
-      <c r="F13" s="6" t="inlineStr">
+      <c r="B15" s="7" t="n"/>
+      <c r="C15" s="7" t="n"/>
+      <c r="D15" s="7" t="n"/>
+      <c r="E15" s="7" t="n"/>
+      <c r="F15" s="7" t="inlineStr">
         <is>
           <t>运 输 单 位 负 责 人 (  签 字 确 认 ) ：</t>
         </is>
       </c>
-      <c r="G13" s="6" t="n"/>
-      <c r="H13" s="6" t="n"/>
-      <c r="I13" s="6" t="n"/>
-      <c r="J13" s="6" t="n"/>
-      <c r="K13" s="6" t="n"/>
-      <c r="L13" s="6" t="n"/>
-      <c r="M13" s="6" t="n"/>
-      <c r="N13" s="6" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="7" t="inlineStr">
+      <c r="G15" s="7" t="n"/>
+      <c r="H15" s="7" t="n"/>
+      <c r="I15" s="7" t="n"/>
+      <c r="J15" s="7" t="n"/>
+      <c r="K15" s="7" t="n"/>
+      <c r="L15" s="7" t="n"/>
+      <c r="M15" s="7" t="n"/>
+      <c r="N15" s="7" t="n"/>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" s="8" t="inlineStr">
         <is>
           <t>经 营 范 围 ： 建筑垃圾清运，砂石料运输及销售，供应铺路石渣，云梯车租赁。</t>
         </is>
       </c>
-      <c r="B14" s="7" t="n"/>
-      <c r="C14" s="7" t="n"/>
-      <c r="D14" s="7" t="n"/>
-      <c r="E14" s="7" t="n"/>
-      <c r="F14" s="7" t="n"/>
-      <c r="G14" s="7" t="n"/>
-      <c r="H14" s="7" t="n"/>
-      <c r="I14" s="7" t="n"/>
-      <c r="J14" s="7" t="n"/>
-      <c r="K14" s="7" t="n"/>
-      <c r="L14" s="7" t="n"/>
-      <c r="M14" s="7" t="n"/>
-      <c r="N14" s="7" t="n"/>
-    </row>
-    <row r="15" ht="22" customHeight="1">
-      <c r="A15" s="8" t="inlineStr">
+      <c r="B16" s="8" t="n"/>
+      <c r="C16" s="8" t="n"/>
+      <c r="D16" s="8" t="n"/>
+      <c r="E16" s="8" t="n"/>
+      <c r="F16" s="8" t="n"/>
+      <c r="G16" s="8" t="n"/>
+      <c r="H16" s="8" t="n"/>
+      <c r="I16" s="8" t="n"/>
+      <c r="J16" s="8" t="n"/>
+      <c r="K16" s="8" t="n"/>
+      <c r="L16" s="8" t="n"/>
+      <c r="M16" s="8" t="n"/>
+      <c r="N16" s="8" t="n"/>
+    </row>
+    <row r="17" ht="22" customHeight="1">
+      <c r="A17" s="9" t="inlineStr">
         <is>
           <t>立 信 于 心 ， 尽 责 至 善！</t>
         </is>
       </c>
-      <c r="B15" s="8" t="n"/>
-      <c r="C15" s="8" t="n"/>
-      <c r="D15" s="8" t="n"/>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
-      <c r="G15" s="8" t="n"/>
-      <c r="H15" s="8" t="n"/>
-      <c r="I15" s="8" t="n"/>
-      <c r="J15" s="8" t="n"/>
-      <c r="K15" s="8" t="n"/>
-      <c r="L15" s="8" t="n"/>
-      <c r="M15" s="8" t="n"/>
-      <c r="N15" s="8" t="n"/>
+      <c r="B17" s="9" t="n"/>
+      <c r="C17" s="9" t="n"/>
+      <c r="D17" s="9" t="n"/>
+      <c r="E17" s="9" t="n"/>
+      <c r="F17" s="9" t="n"/>
+      <c r="G17" s="9" t="n"/>
+      <c r="H17" s="9" t="n"/>
+      <c r="I17" s="9" t="n"/>
+      <c r="J17" s="9" t="n"/>
+      <c r="K17" s="9" t="n"/>
+      <c r="L17" s="9" t="n"/>
+      <c r="M17" s="9" t="n"/>
+      <c r="N17" s="9" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G12:H12"/>
+  <mergeCells count="27">
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="G11:K11"/>
     <mergeCell ref="A3:C3"/>
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="G8:H8"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A1:N1"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="F13:N13"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="G13:K13"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="I9:N9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="G4:K4"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="A11:B14"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F15:K15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="宏途清运终点对账单" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="宏途清运起点对账单" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -71,11 +71,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,12 +468,13 @@
     <col width="8.49" customWidth="1" min="9" max="9"/>
     <col width="16.87" customWidth="1" min="10" max="10"/>
     <col width="10.58" customWidth="1" min="11" max="11"/>
+    <col width="16.87" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>宏途清运终点对账单</t>
+          <t>宏途清运起点对账单</t>
         </is>
       </c>
     </row>
@@ -485,26 +486,19 @@
       </c>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>阳光体育</t>
-        </is>
-      </c>
+      <c r="D2" s="2" t="n"/>
       <c r="E2" s="2" t="n"/>
       <c r="F2" s="2" t="inlineStr">
         <is>
           <t>项 目 老 板 名 称</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>刘老板</t>
-        </is>
-      </c>
+      <c r="G2" s="2" t="n"/>
       <c r="H2" s="2" t="n"/>
       <c r="I2" s="2" t="n"/>
       <c r="J2" s="2" t="n"/>
       <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
     </row>
     <row r="3" ht="25" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
@@ -526,6 +520,7 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -555,6 +550,7 @@
       <c r="I4" s="2" t="n"/>
       <c r="J4" s="2" t="n"/>
       <c r="K4" s="2" t="n"/>
+      <c r="L4" s="2" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" s="3" t="inlineStr">
@@ -600,7 +596,7 @@
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
-          <t>终点付费金额</t>
+          <t>工地承接单价</t>
         </is>
       </c>
       <c r="K5" s="3" t="inlineStr">
@@ -608,9 +604,11 @@
           <t>总金额</t>
         </is>
       </c>
-      <c r="L5" s="3" t="n"/>
-      <c r="M5" s="3" t="n"/>
-      <c r="N5" s="3" t="n"/>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>起点补贴金额</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" s="4" t="n">
@@ -618,13 +616,13 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>2024-08-21</t>
+          <t>2024-07-31</t>
         </is>
       </c>
       <c r="C6" s="4" t="n"/>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>彭墩</t>
+          <t>云谷人行道</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -632,7 +630,11 @@
           <t>垃圾</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>闽HSH072</t>
+        </is>
+      </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
           <t>自带机械</t>
@@ -643,413 +645,233 @@
       </c>
       <c r="I6" s="4" t="inlineStr">
         <is>
-          <t>工地</t>
+          <t>车</t>
         </is>
       </c>
       <c r="J6" s="4" t="n">
+        <v>260</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>260</v>
+      </c>
+      <c r="L6" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="K6" s="4" t="n">
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>总 计 金 额</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="n"/>
+      <c r="C7" s="4" t="n"/>
+      <c r="D7" s="4" t="n">
+        <v>260</v>
+      </c>
+      <c r="E7" s="4" t="n"/>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>总 计 大 写 (金 额)</t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>贰佰陆拾</t>
+        </is>
+      </c>
+      <c r="H7" s="4" t="n"/>
+      <c r="I7" s="4" t="n"/>
+      <c r="J7" s="4" t="n"/>
+      <c r="K7" s="4" t="n"/>
+      <c r="L7" s="4" t="n"/>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>运输品类合计</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>运输起点</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>品类</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>车队</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>总金额</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="n"/>
+      <c r="I8" s="2" t="n"/>
+      <c r="J8" s="2" t="n"/>
+      <c r="K8" s="2" t="n"/>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>起点补贴金额</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="C9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>云谷人行道</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>垃圾</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>闽HSH072</t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>260</v>
+      </c>
+      <c r="H9" s="4" t="n"/>
+      <c r="I9" s="4" t="n"/>
+      <c r="J9" s="4" t="n"/>
+      <c r="K9" s="4" t="n"/>
+      <c r="L9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L6" s="4" t="n"/>
-      <c r="M6" s="4" t="n"/>
-      <c r="N6" s="4" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>2024-08-01</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="n"/>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>彭墩</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>垃圾</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr"/>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>自带机械</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>吨</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="L7" s="4" t="n"/>
-      <c r="M7" s="4" t="n"/>
-      <c r="N7" s="4" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>2024-08-04</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="n"/>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>彭墩</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>垃圾</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>闽HRSR896</t>
-        </is>
-      </c>
-      <c r="G8" s="4" t="inlineStr">
-        <is>
-          <t>自带机械</t>
-        </is>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="I8" s="4" t="inlineStr">
-        <is>
-          <t>吨</t>
-        </is>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="L8" s="4" t="n"/>
-      <c r="M8" s="4" t="n"/>
-      <c r="N8" s="4" t="n"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>2024-08-06</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="n"/>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>彭墩</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>砖</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>闽HYZ633，闽HRT560，闽HRSR896，闽HPUY732</t>
-        </is>
-      </c>
-      <c r="G9" s="4" t="inlineStr">
-        <is>
-          <t>工地机械</t>
-        </is>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" s="4" t="inlineStr">
-        <is>
-          <t>吨</t>
-        </is>
-      </c>
-      <c r="J9" s="4" t="n">
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>合计</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>260</v>
+      </c>
+      <c r="H10" s="6" t="n"/>
+      <c r="I10" s="6" t="n"/>
+      <c r="J10" s="6" t="n"/>
+      <c r="K10" s="6" t="n"/>
+      <c r="L10" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="K9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4" t="n"/>
-      <c r="M9" s="4" t="n"/>
-      <c r="N9" s="4" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
-        <is>
-          <t>总 计 金 额</t>
-        </is>
-      </c>
-      <c r="B10" s="5" t="n"/>
-      <c r="C10" s="5" t="n"/>
-      <c r="D10" s="5" t="n">
-        <v>110</v>
-      </c>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="5" t="inlineStr">
-        <is>
-          <t>总 计 大 写 (金 额)</t>
-        </is>
-      </c>
-      <c r="G10" s="5" t="inlineStr">
-        <is>
-          <t>壹佰壹拾</t>
-        </is>
-      </c>
-      <c r="H10" s="5" t="n"/>
-      <c r="I10" s="5" t="n"/>
-      <c r="J10" s="5" t="n"/>
-      <c r="K10" s="5" t="n"/>
-      <c r="L10" s="5" t="n"/>
-      <c r="M10" s="5" t="n"/>
-      <c r="N10" s="5" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>运输品类合计</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>序号</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>运输起点</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>品类</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>车队</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>总金额</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n"/>
-      <c r="I11" s="2" t="n"/>
-      <c r="J11" s="2" t="n"/>
-      <c r="K11" s="2" t="n"/>
-      <c r="L11" s="2" t="n"/>
-      <c r="M11" s="2" t="n"/>
-      <c r="N11" s="2" t="n"/>
+    </row>
+    <row r="11" ht="30" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>工 地 负 责 人（ 签 字 确 认 ) ：</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="n"/>
+      <c r="C11" s="7" t="n"/>
+      <c r="D11" s="7" t="n"/>
+      <c r="E11" s="7" t="n"/>
+      <c r="F11" s="7" t="inlineStr">
+        <is>
+          <t>运 输 单 位 负 责 人 (  签 字 确 认 ) ：</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="n"/>
+      <c r="H11" s="7" t="n"/>
+      <c r="I11" s="7" t="n"/>
+      <c r="J11" s="7" t="n"/>
+      <c r="K11" s="7" t="n"/>
+      <c r="L11" s="7" t="n"/>
     </row>
     <row r="12" ht="15" customHeight="1">
-      <c r="C12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4" t="inlineStr">
-        <is>
-          <t>彭墩</t>
-        </is>
-      </c>
-      <c r="E12" s="4" t="inlineStr">
-        <is>
-          <t>垃圾</t>
-        </is>
-      </c>
-      <c r="F12" s="4" t="inlineStr">
-        <is>
-          <t>闽HRSR896</t>
-        </is>
-      </c>
-      <c r="G12" s="4" t="n">
-        <v>110</v>
-      </c>
-      <c r="H12" s="4" t="n"/>
-      <c r="I12" s="4" t="n"/>
-      <c r="J12" s="4" t="n"/>
-      <c r="K12" s="4" t="n"/>
-      <c r="L12" s="4" t="n"/>
-      <c r="M12" s="4" t="n"/>
-      <c r="N12" s="4" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="C13" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" s="4" t="inlineStr">
-        <is>
-          <t>彭墩</t>
-        </is>
-      </c>
-      <c r="E13" s="4" t="inlineStr">
-        <is>
-          <t>砖</t>
-        </is>
-      </c>
-      <c r="F13" s="4" t="inlineStr">
-        <is>
-          <t>闽HRT560，闽HRSR896，闽HPUY732</t>
-        </is>
-      </c>
-      <c r="G13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4" t="n"/>
-      <c r="I13" s="4" t="n"/>
-      <c r="J13" s="4" t="n"/>
-      <c r="K13" s="4" t="n"/>
-      <c r="L13" s="4" t="n"/>
-      <c r="M13" s="4" t="n"/>
-      <c r="N13" s="4" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="C14" s="5" t="inlineStr">
-        <is>
-          <t>合计</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E14" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F14" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>110</v>
-      </c>
-      <c r="H14" s="5" t="n"/>
-      <c r="I14" s="5" t="n"/>
-      <c r="J14" s="5" t="n"/>
-      <c r="K14" s="5" t="n"/>
-      <c r="L14" s="5" t="n"/>
-      <c r="M14" s="5" t="n"/>
-      <c r="N14" s="5" t="n"/>
-    </row>
-    <row r="15" ht="30" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>工 地 负 责 人（ 签 字 确 认 ) ：</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="n"/>
-      <c r="C15" s="7" t="n"/>
-      <c r="D15" s="7" t="n"/>
-      <c r="E15" s="7" t="n"/>
-      <c r="F15" s="7" t="inlineStr">
-        <is>
-          <t>运 输 单 位 负 责 人 (  签 字 确 认 ) ：</t>
-        </is>
-      </c>
-      <c r="G15" s="7" t="n"/>
-      <c r="H15" s="7" t="n"/>
-      <c r="I15" s="7" t="n"/>
-      <c r="J15" s="7" t="n"/>
-      <c r="K15" s="7" t="n"/>
-      <c r="L15" s="7" t="n"/>
-      <c r="M15" s="7" t="n"/>
-      <c r="N15" s="7" t="n"/>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="8" t="inlineStr">
+      <c r="A12" s="8" t="inlineStr">
         <is>
           <t>经 营 范 围 ： 建筑垃圾清运，砂石料运输及销售，供应铺路石渣，云梯车租赁。</t>
         </is>
       </c>
-      <c r="B16" s="8" t="n"/>
-      <c r="C16" s="8" t="n"/>
-      <c r="D16" s="8" t="n"/>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
-      <c r="G16" s="8" t="n"/>
-      <c r="H16" s="8" t="n"/>
-      <c r="I16" s="8" t="n"/>
-      <c r="J16" s="8" t="n"/>
-      <c r="K16" s="8" t="n"/>
-      <c r="L16" s="8" t="n"/>
-      <c r="M16" s="8" t="n"/>
-      <c r="N16" s="8" t="n"/>
-    </row>
-    <row r="17" ht="22" customHeight="1">
-      <c r="A17" s="9" t="inlineStr">
+      <c r="B12" s="8" t="n"/>
+      <c r="C12" s="8" t="n"/>
+      <c r="D12" s="8" t="n"/>
+      <c r="E12" s="8" t="n"/>
+      <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
+      <c r="H12" s="8" t="n"/>
+      <c r="I12" s="8" t="n"/>
+      <c r="J12" s="8" t="n"/>
+      <c r="K12" s="8" t="n"/>
+      <c r="L12" s="8" t="n"/>
+    </row>
+    <row r="13" ht="22" customHeight="1">
+      <c r="A13" s="9" t="inlineStr">
         <is>
           <t>立 信 于 心 ， 尽 责 至 善！</t>
         </is>
       </c>
-      <c r="B17" s="9" t="n"/>
-      <c r="C17" s="9" t="n"/>
-      <c r="D17" s="9" t="n"/>
-      <c r="E17" s="9" t="n"/>
-      <c r="F17" s="9" t="n"/>
-      <c r="G17" s="9" t="n"/>
-      <c r="H17" s="9" t="n"/>
-      <c r="I17" s="9" t="n"/>
-      <c r="J17" s="9" t="n"/>
-      <c r="K17" s="9" t="n"/>
-      <c r="L17" s="9" t="n"/>
-      <c r="M17" s="9" t="n"/>
-      <c r="N17" s="9" t="n"/>
+      <c r="B13" s="9" t="n"/>
+      <c r="C13" s="9" t="n"/>
+      <c r="D13" s="9" t="n"/>
+      <c r="E13" s="9" t="n"/>
+      <c r="F13" s="9" t="n"/>
+      <c r="G13" s="9" t="n"/>
+      <c r="H13" s="9" t="n"/>
+      <c r="I13" s="9" t="n"/>
+      <c r="J13" s="9" t="n"/>
+      <c r="K13" s="9" t="n"/>
+      <c r="L13" s="9" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="G11:K11"/>
+  <mergeCells count="23">
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A3:C3"/>
+    <mergeCell ref="G8:K8"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A12:L12"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="G10:K10"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="G4:L4"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A13:L13"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="A8:B10"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A11:B14"/>
+    <mergeCell ref="G2:L2"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G7:L7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="宏途清运起点对账单" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="宏途清运公司对账单" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,7 +474,7 @@
     <row r="1" ht="25" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>宏途清运起点对账单</t>
+          <t>宏途清运公司对账单</t>
         </is>
       </c>
     </row>
@@ -486,14 +486,22 @@
       </c>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>华润项目</t>
+        </is>
+      </c>
       <c r="E2" s="2" t="n"/>
       <c r="F2" s="2" t="inlineStr">
         <is>
           <t>项 目 老 板 名 称</t>
         </is>
       </c>
-      <c r="G2" s="2" t="n"/>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>乔保健</t>
+        </is>
+      </c>
       <c r="H2" s="2" t="n"/>
       <c r="I2" s="2" t="n"/>
       <c r="J2" s="2" t="n"/>
@@ -508,14 +516,22 @@
       </c>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="inlineStr"/>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="inlineStr">
         <is>
           <t>对 账 截 止 日 期</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
@@ -616,7 +632,7 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="C6" s="4" t="n"/>
@@ -649,229 +665,814 @@
         </is>
       </c>
       <c r="J6" s="4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="n"/>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>云谷人行道</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>石子</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>闽HRSR896</t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>自带机械</t>
+        </is>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I7" s="4" t="inlineStr">
+        <is>
+          <t>方</t>
+        </is>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>2024-07-30</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n"/>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>建盏街</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>垃圾</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>闽HRT560</t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t>自带机械</t>
+        </is>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" s="4" t="inlineStr">
+        <is>
+          <t>车</t>
+        </is>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>2024-07-30</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n"/>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>建盏街</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>垃圾</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>闽HYZ633</t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>自带机械</t>
+        </is>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I9" s="4" t="inlineStr">
+        <is>
+          <t>车</t>
+        </is>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="n"/>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>建盏街</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>垃圾</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t>闽HSH072</t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t>自带机械</t>
+        </is>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4" t="inlineStr">
+        <is>
+          <t>车</t>
+        </is>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n"/>
+      <c r="D11" s="4" t="inlineStr">
+        <is>
+          <t>建盏街</t>
+        </is>
+      </c>
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>垃圾</t>
+        </is>
+      </c>
+      <c r="F11" s="4" t="inlineStr">
+        <is>
+          <t>闽HRT560</t>
+        </is>
+      </c>
+      <c r="G11" s="4" t="inlineStr">
+        <is>
+          <t>自带机械</t>
+        </is>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" s="4" t="inlineStr">
+        <is>
+          <t>车</t>
+        </is>
+      </c>
+      <c r="J11" s="4" t="n">
         <v>260</v>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="K11" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L11" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n"/>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>建盏街</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>垃圾</t>
+        </is>
+      </c>
+      <c r="F12" s="4" t="inlineStr">
+        <is>
+          <t>闽HYZ633</t>
+        </is>
+      </c>
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t>自带机械</t>
+        </is>
+      </c>
+      <c r="H12" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="I12" s="4" t="inlineStr">
+        <is>
+          <t>车</t>
+        </is>
+      </c>
+      <c r="J12" s="4" t="n">
         <v>260</v>
       </c>
-      <c r="L6" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="K12" s="4" t="n">
+        <v>2860</v>
+      </c>
+      <c r="L12" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="n"/>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>建盏街</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>垃圾</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>闽HSH072</t>
+        </is>
+      </c>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t>自带机械</t>
+        </is>
+      </c>
+      <c r="H13" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" s="4" t="inlineStr">
+        <is>
+          <t>车</t>
+        </is>
+      </c>
+      <c r="J13" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="K13" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="L13" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n"/>
+      <c r="D14" s="4" t="inlineStr">
+        <is>
+          <t>天圆地方工地</t>
+        </is>
+      </c>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>垃圾</t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="inlineStr">
+        <is>
+          <t>闽HYZ633</t>
+        </is>
+      </c>
+      <c r="G14" s="4" t="inlineStr">
+        <is>
+          <t>自带机械</t>
+        </is>
+      </c>
+      <c r="H14" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" s="4" t="inlineStr">
+        <is>
+          <t>车</t>
+        </is>
+      </c>
+      <c r="J14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n"/>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t>童游农校</t>
+        </is>
+      </c>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>砖</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>闽HRT560</t>
+        </is>
+      </c>
+      <c r="G15" s="4" t="inlineStr">
+        <is>
+          <t>自带机械</t>
+        </is>
+      </c>
+      <c r="H15" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I15" s="4" t="inlineStr">
+        <is>
+          <t>块</t>
+        </is>
+      </c>
+      <c r="J15" s="4" t="n">
+        <v>260</v>
+      </c>
+      <c r="K15" s="4" t="n">
+        <v>260000</v>
+      </c>
+      <c r="L15" s="4" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>总 计 金 额</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n"/>
-      <c r="C7" s="4" t="n"/>
-      <c r="D7" s="4" t="n">
-        <v>260</v>
-      </c>
-      <c r="E7" s="4" t="n"/>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="B16" s="4" t="n"/>
+      <c r="C16" s="4" t="n"/>
+      <c r="D16" s="4" t="n">
+        <v>264983</v>
+      </c>
+      <c r="E16" s="4" t="n"/>
+      <c r="F16" s="4" t="inlineStr">
         <is>
           <t>总 计 大 写 (金 额)</t>
         </is>
       </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>贰佰陆拾</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="n"/>
-      <c r="I7" s="4" t="n"/>
-      <c r="J7" s="4" t="n"/>
-      <c r="K7" s="4" t="n"/>
-      <c r="L7" s="4" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="G16" s="4" t="inlineStr">
+        <is>
+          <t>贰拾陆肆仟玖佰捌拾叁</t>
+        </is>
+      </c>
+      <c r="H16" s="4" t="n"/>
+      <c r="I16" s="4" t="n"/>
+      <c r="J16" s="4" t="n"/>
+      <c r="K16" s="4" t="n"/>
+      <c r="L16" s="4" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>运输品类合计</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>序号</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D17" s="2" t="inlineStr">
         <is>
           <t>运输起点</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>品类</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>车队</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>合计数量</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="n"/>
+      <c r="I17" s="2" t="inlineStr">
         <is>
           <t>总金额</t>
         </is>
       </c>
-      <c r="H8" s="2" t="n"/>
-      <c r="I8" s="2" t="n"/>
-      <c r="J8" s="2" t="n"/>
-      <c r="K8" s="2" t="n"/>
-      <c r="L8" s="2" t="inlineStr">
+      <c r="J17" s="2" t="n"/>
+      <c r="K17" s="2" t="n"/>
+      <c r="L17" s="2" t="inlineStr">
         <is>
           <t>起点补贴金额</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="C9" s="4" t="n">
+    <row r="18" ht="15" customHeight="1">
+      <c r="C18" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="4" t="inlineStr">
+      <c r="D18" s="4" t="inlineStr">
         <is>
           <t>云谷人行道</t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E18" s="4" t="inlineStr">
         <is>
           <t>垃圾</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F18" s="4" t="inlineStr">
         <is>
           <t>闽HSH072</t>
         </is>
       </c>
-      <c r="G9" s="4" t="n">
-        <v>260</v>
-      </c>
-      <c r="H9" s="4" t="n"/>
-      <c r="I9" s="4" t="n"/>
-      <c r="J9" s="4" t="n"/>
-      <c r="K9" s="4" t="n"/>
-      <c r="L9" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="C10" s="6" t="inlineStr">
+      <c r="G18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4" t="n"/>
+      <c r="I18" s="4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J18" s="4" t="n"/>
+      <c r="K18" s="4" t="n"/>
+      <c r="L18" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="C19" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t>云谷人行道</t>
+        </is>
+      </c>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>石子</t>
+        </is>
+      </c>
+      <c r="F19" s="4" t="inlineStr">
+        <is>
+          <t>闽HRSR896</t>
+        </is>
+      </c>
+      <c r="G19" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="H19" s="4" t="n"/>
+      <c r="I19" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="J19" s="4" t="n"/>
+      <c r="K19" s="4" t="n"/>
+      <c r="L19" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="C20" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>建盏街</t>
+        </is>
+      </c>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>垃圾</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="inlineStr">
+        <is>
+          <t>闽HSH072，闽HYZ633，闽HRT560</t>
+        </is>
+      </c>
+      <c r="G20" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="H20" s="4" t="n"/>
+      <c r="I20" s="4" t="n">
+        <v>4912.5</v>
+      </c>
+      <c r="J20" s="4" t="n"/>
+      <c r="K20" s="4" t="n"/>
+      <c r="L20" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="C21" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>天圆地方工地</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>垃圾</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>闽HYZ633</t>
+        </is>
+      </c>
+      <c r="G21" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H21" s="4" t="n"/>
+      <c r="I21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4" t="n"/>
+      <c r="K21" s="4" t="n"/>
+      <c r="L21" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="C22" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>童游农校</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>砖</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>闽HRT560</t>
+        </is>
+      </c>
+      <c r="G22" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H22" s="4" t="n"/>
+      <c r="I22" s="4" t="n">
+        <v>260000</v>
+      </c>
+      <c r="J22" s="4" t="n"/>
+      <c r="K22" s="4" t="n"/>
+      <c r="L22" s="4" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="C23" s="6" t="inlineStr">
         <is>
           <t>合计</t>
         </is>
       </c>
-      <c r="D10" s="6" t="inlineStr">
+      <c r="D23" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E10" s="6" t="inlineStr">
+      <c r="E23" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="F10" s="6" t="inlineStr">
+      <c r="F23" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G10" s="6" t="n">
-        <v>260</v>
-      </c>
-      <c r="H10" s="6" t="n"/>
-      <c r="I10" s="6" t="n"/>
-      <c r="J10" s="6" t="n"/>
-      <c r="K10" s="6" t="n"/>
-      <c r="L10" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" ht="30" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
+      <c r="G23" s="6" t="n">
+        <v>264983</v>
+      </c>
+      <c r="H23" s="6" t="n"/>
+      <c r="I23" s="6" t="n"/>
+      <c r="J23" s="6" t="n"/>
+      <c r="K23" s="6" t="n"/>
+      <c r="L23" s="6" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" ht="30" customHeight="1">
+      <c r="A24" s="7" t="inlineStr">
         <is>
           <t>工 地 负 责 人（ 签 字 确 认 ) ：</t>
         </is>
       </c>
-      <c r="B11" s="7" t="n"/>
-      <c r="C11" s="7" t="n"/>
-      <c r="D11" s="7" t="n"/>
-      <c r="E11" s="7" t="n"/>
-      <c r="F11" s="7" t="inlineStr">
+      <c r="B24" s="7" t="n"/>
+      <c r="C24" s="7" t="n"/>
+      <c r="D24" s="7" t="n"/>
+      <c r="E24" s="7" t="n"/>
+      <c r="F24" s="7" t="inlineStr">
         <is>
           <t>运 输 单 位 负 责 人 (  签 字 确 认 ) ：</t>
         </is>
       </c>
-      <c r="G11" s="7" t="n"/>
-      <c r="H11" s="7" t="n"/>
-      <c r="I11" s="7" t="n"/>
-      <c r="J11" s="7" t="n"/>
-      <c r="K11" s="7" t="n"/>
-      <c r="L11" s="7" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="8" t="inlineStr">
+      <c r="G24" s="7" t="n"/>
+      <c r="H24" s="7" t="n"/>
+      <c r="I24" s="7" t="n"/>
+      <c r="J24" s="7" t="n"/>
+      <c r="K24" s="7" t="n"/>
+      <c r="L24" s="7" t="n"/>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" s="8" t="inlineStr">
         <is>
           <t>经 营 范 围 ： 建筑垃圾清运，砂石料运输及销售，供应铺路石渣，云梯车租赁。</t>
         </is>
       </c>
-      <c r="B12" s="8" t="n"/>
-      <c r="C12" s="8" t="n"/>
-      <c r="D12" s="8" t="n"/>
-      <c r="E12" s="8" t="n"/>
-      <c r="F12" s="8" t="n"/>
-      <c r="G12" s="8" t="n"/>
-      <c r="H12" s="8" t="n"/>
-      <c r="I12" s="8" t="n"/>
-      <c r="J12" s="8" t="n"/>
-      <c r="K12" s="8" t="n"/>
-      <c r="L12" s="8" t="n"/>
-    </row>
-    <row r="13" ht="22" customHeight="1">
-      <c r="A13" s="9" t="inlineStr">
+      <c r="B25" s="8" t="n"/>
+      <c r="C25" s="8" t="n"/>
+      <c r="D25" s="8" t="n"/>
+      <c r="E25" s="8" t="n"/>
+      <c r="F25" s="8" t="n"/>
+      <c r="G25" s="8" t="n"/>
+      <c r="H25" s="8" t="n"/>
+      <c r="I25" s="8" t="n"/>
+      <c r="J25" s="8" t="n"/>
+      <c r="K25" s="8" t="n"/>
+      <c r="L25" s="8" t="n"/>
+    </row>
+    <row r="26" ht="22" customHeight="1">
+      <c r="A26" s="9" t="inlineStr">
         <is>
           <t>立 信 于 心 ， 尽 责 至 善！</t>
         </is>
       </c>
-      <c r="B13" s="9" t="n"/>
-      <c r="C13" s="9" t="n"/>
-      <c r="D13" s="9" t="n"/>
-      <c r="E13" s="9" t="n"/>
-      <c r="F13" s="9" t="n"/>
-      <c r="G13" s="9" t="n"/>
-      <c r="H13" s="9" t="n"/>
-      <c r="I13" s="9" t="n"/>
-      <c r="J13" s="9" t="n"/>
-      <c r="K13" s="9" t="n"/>
-      <c r="L13" s="9" t="n"/>
+      <c r="B26" s="9" t="n"/>
+      <c r="C26" s="9" t="n"/>
+      <c r="D26" s="9" t="n"/>
+      <c r="E26" s="9" t="n"/>
+      <c r="F26" s="9" t="n"/>
+      <c r="G26" s="9" t="n"/>
+      <c r="H26" s="9" t="n"/>
+      <c r="I26" s="9" t="n"/>
+      <c r="J26" s="9" t="n"/>
+      <c r="K26" s="9" t="n"/>
+      <c r="L26" s="9" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A11:E11"/>
+  <mergeCells count="42">
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="A24:E24"/>
     <mergeCell ref="G3:L3"/>
     <mergeCell ref="A3:C3"/>
-    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="G17:H17"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A26:L26"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="I17:K17"/>
     <mergeCell ref="G4:L4"/>
+    <mergeCell ref="I20:K20"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F24:L24"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A8:B10"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="G20:H20"/>
     <mergeCell ref="G2:L2"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A17:B23"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A16:C16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
